--- a/SprintPracto/Practo/src/test/resources/Excel/PractoTestSc1.xlsx
+++ b/SprintPracto/Practo/src/test/resources/Excel/PractoTestSc1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\training\java\SprintPracto\Practo\src\test\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5531A880-AFA5-4C4F-97A7-D93B6F5EFFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C3CB2A-87BB-424D-A7B5-1796C33C2B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="1460" windowWidth="14400" windowHeight="9820" activeTab="1" xr2:uid="{39B25D9C-F411-4BCB-9A7E-8020505F5A5B}"/>
+    <workbookView xWindow="4800" yWindow="1460" windowWidth="14400" windowHeight="9820" xr2:uid="{39B25D9C-F411-4BCB-9A7E-8020505F5A5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -437,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC7E628-4130-4CFA-AFB5-5FBB19F150F3}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -478,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BED2259-B71D-4F59-9E5D-B848330CDF67}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
